--- a/suivi 3h standart DIPS.xlsx
+++ b/suivi 3h standart DIPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1176D13-EC13-4443-8C0C-832130475AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FECD9FC-EBA1-40E5-A36F-5501E2505D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="611" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUIVI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="293">
   <si>
     <t>Filtre à cartouche</t>
   </si>
@@ -921,12 +921,6 @@
   <si>
     <t>6.48</t>
   </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>poste</t>
-  </si>
 </sst>
 </file>
 
@@ -935,7 +929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -998,6 +992,28 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1041,7 +1057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1079,13 +1095,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,6 +1226,36 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1519,11 +1574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN128"/>
+  <dimension ref="A1:BN137"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1586,70 +1641,70 @@
     <row r="1" spans="1:54" s="4" customFormat="1">
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40" t="s">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
     </row>
     <row r="2" spans="1:54" s="4" customFormat="1" ht="28.8">
       <c r="A2" s="7" t="s">
@@ -16665,7 +16720,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="21">
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="C99" s="6">
         <v>0.95833333333333337</v>
@@ -18015,10 +18070,10 @@
     </row>
     <row r="108" spans="1:53">
       <c r="A108" s="14" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="B108" s="21">
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="C108" s="6">
         <v>0.95833333333333337</v>
@@ -18160,7 +18215,7 @@
     </row>
     <row r="109" spans="1:53">
       <c r="A109" s="14" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="B109" s="21">
         <v>45753</v>
@@ -18305,7 +18360,7 @@
     </row>
     <row r="110" spans="1:53">
       <c r="A110" s="14" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="B110" s="21">
         <v>45753</v>
@@ -19500,7 +19555,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="21">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C118" s="6">
         <v>8.3333333333333329E-2</v>
@@ -19645,7 +19700,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="21">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="C119" s="6">
         <v>0.20833333333333334</v>
@@ -20756,7 +20811,7 @@
         <v>136</v>
       </c>
       <c r="B126" s="21">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C126" s="6">
         <v>0.95833333333333337</v>
@@ -21158,14 +21213,1364 @@
       <c r="AS128" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="AT128" s="37"/>
-      <c r="AU128" s="37"/>
-      <c r="AV128" s="37"/>
-      <c r="AW128" s="37"/>
-      <c r="AX128" s="37"/>
-      <c r="AY128" s="37"/>
-      <c r="AZ128" s="37"/>
-      <c r="BA128" s="37"/>
+      <c r="AT128" s="23"/>
+      <c r="AU128" s="23"/>
+      <c r="AV128" s="23"/>
+      <c r="AW128" s="23"/>
+      <c r="AX128" s="23"/>
+      <c r="AY128" s="23"/>
+      <c r="AZ128" s="23"/>
+      <c r="BA128" s="23"/>
+    </row>
+    <row r="129" spans="1:53" s="42" customFormat="1">
+      <c r="A129" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C129" s="22">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D129" s="40">
+        <v>4</v>
+      </c>
+      <c r="E129" s="41">
+        <v>4877</v>
+      </c>
+      <c r="F129" s="42">
+        <v>3.12</v>
+      </c>
+      <c r="G129" s="41">
+        <v>8.33</v>
+      </c>
+      <c r="H129" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="I129" s="41">
+        <v>15</v>
+      </c>
+      <c r="J129" s="41">
+        <v>7</v>
+      </c>
+      <c r="K129" s="41">
+        <v>4276</v>
+      </c>
+      <c r="L129" s="41">
+        <v>1.02</v>
+      </c>
+      <c r="M129" s="41">
+        <v>2829</v>
+      </c>
+      <c r="N129" s="41">
+        <v>4</v>
+      </c>
+      <c r="O129" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="P129" s="41">
+        <v>2829</v>
+      </c>
+      <c r="Q129" s="41">
+        <v>57.66</v>
+      </c>
+      <c r="R129" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="S129" s="41">
+        <v>233</v>
+      </c>
+      <c r="T129" s="41">
+        <v>3.61</v>
+      </c>
+      <c r="U129" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="V129" s="34"/>
+      <c r="W129" s="34"/>
+      <c r="X129" s="34"/>
+      <c r="Y129" s="34"/>
+      <c r="Z129" s="34"/>
+      <c r="AA129" s="34"/>
+      <c r="AB129" s="34"/>
+      <c r="AC129" s="34"/>
+      <c r="AD129" s="41">
+        <v>1.69</v>
+      </c>
+      <c r="AE129" s="41">
+        <v>1401</v>
+      </c>
+      <c r="AF129" s="41">
+        <v>769</v>
+      </c>
+      <c r="AG129" s="41">
+        <v>632</v>
+      </c>
+      <c r="AH129" s="41">
+        <v>766</v>
+      </c>
+      <c r="AI129" s="41">
+        <v>649</v>
+      </c>
+      <c r="AJ129" s="41">
+        <v>526</v>
+      </c>
+      <c r="AK129" s="41">
+        <v>5.75</v>
+      </c>
+      <c r="AL129" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="AM129" s="41">
+        <v>1408</v>
+      </c>
+      <c r="AN129" s="41">
+        <v>768</v>
+      </c>
+      <c r="AO129" s="41">
+        <v>639</v>
+      </c>
+      <c r="AP129" s="41">
+        <v>780</v>
+      </c>
+      <c r="AQ129" s="41">
+        <v>643</v>
+      </c>
+      <c r="AR129" s="41">
+        <v>495.2</v>
+      </c>
+      <c r="AS129" s="41">
+        <v>6.38</v>
+      </c>
+      <c r="AT129" s="23"/>
+      <c r="AU129" s="23"/>
+      <c r="AV129" s="23"/>
+      <c r="AW129" s="23"/>
+      <c r="AX129" s="23"/>
+      <c r="AY129" s="23"/>
+      <c r="AZ129" s="23"/>
+      <c r="BA129" s="23"/>
+    </row>
+    <row r="130" spans="1:53" s="42" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D130" s="40">
+        <v>4</v>
+      </c>
+      <c r="E130" s="41">
+        <v>5046</v>
+      </c>
+      <c r="F130" s="42">
+        <v>3.13</v>
+      </c>
+      <c r="G130" s="41">
+        <v>8.33</v>
+      </c>
+      <c r="H130" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I130" s="41">
+        <v>15</v>
+      </c>
+      <c r="J130" s="41">
+        <v>7</v>
+      </c>
+      <c r="K130" s="41">
+        <v>4867</v>
+      </c>
+      <c r="L130" s="41">
+        <v>1.01</v>
+      </c>
+      <c r="M130" s="41">
+        <v>2831</v>
+      </c>
+      <c r="N130" s="41">
+        <v>4</v>
+      </c>
+      <c r="O130" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="P130" s="41">
+        <v>2831</v>
+      </c>
+      <c r="Q130" s="41">
+        <v>57.24</v>
+      </c>
+      <c r="R130" s="41">
+        <v>0.34</v>
+      </c>
+      <c r="S130" s="41">
+        <v>240</v>
+      </c>
+      <c r="T130" s="41">
+        <v>3.61</v>
+      </c>
+      <c r="U130" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="V130" s="34"/>
+      <c r="W130" s="34"/>
+      <c r="X130" s="34"/>
+      <c r="Y130" s="34"/>
+      <c r="Z130" s="34"/>
+      <c r="AA130" s="34"/>
+      <c r="AB130" s="34"/>
+      <c r="AC130" s="34"/>
+      <c r="AD130" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="AE130" s="41">
+        <v>1400</v>
+      </c>
+      <c r="AF130" s="41">
+        <v>771</v>
+      </c>
+      <c r="AG130" s="41">
+        <v>629</v>
+      </c>
+      <c r="AH130" s="41">
+        <v>772</v>
+      </c>
+      <c r="AI130" s="41">
+        <v>632</v>
+      </c>
+      <c r="AJ130" s="41">
+        <v>521.5</v>
+      </c>
+      <c r="AK130" s="41">
+        <v>5.67</v>
+      </c>
+      <c r="AL130" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="AM130" s="41">
+        <v>1401</v>
+      </c>
+      <c r="AN130" s="41">
+        <v>769</v>
+      </c>
+      <c r="AO130" s="41">
+        <v>632</v>
+      </c>
+      <c r="AP130" s="41">
+        <v>781</v>
+      </c>
+      <c r="AQ130" s="41">
+        <v>642</v>
+      </c>
+      <c r="AR130" s="41">
+        <v>497.7</v>
+      </c>
+      <c r="AS130" s="41">
+        <v>6.25</v>
+      </c>
+      <c r="AT130" s="23"/>
+      <c r="AU130" s="23"/>
+      <c r="AV130" s="23"/>
+      <c r="AW130" s="23"/>
+      <c r="AX130" s="23"/>
+      <c r="AY130" s="23"/>
+      <c r="AZ130" s="23"/>
+      <c r="BA130" s="23"/>
+    </row>
+    <row r="131" spans="1:53" s="42" customFormat="1">
+      <c r="A131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D131" s="40">
+        <v>4</v>
+      </c>
+      <c r="E131" s="41">
+        <v>4192</v>
+      </c>
+      <c r="F131" s="42">
+        <v>3.01</v>
+      </c>
+      <c r="G131" s="41">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H131" s="41">
+        <v>0.08</v>
+      </c>
+      <c r="I131" s="41">
+        <v>15</v>
+      </c>
+      <c r="J131" s="41">
+        <v>7</v>
+      </c>
+      <c r="K131" s="41">
+        <v>3400</v>
+      </c>
+      <c r="L131" s="41">
+        <v>1.07</v>
+      </c>
+      <c r="M131" s="41">
+        <v>2830</v>
+      </c>
+      <c r="N131" s="41">
+        <v>4</v>
+      </c>
+      <c r="O131" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="P131" s="41">
+        <v>2830</v>
+      </c>
+      <c r="Q131" s="41">
+        <v>54.27</v>
+      </c>
+      <c r="R131" s="41">
+        <v>0.34</v>
+      </c>
+      <c r="S131" s="41">
+        <v>241.2</v>
+      </c>
+      <c r="T131" s="41">
+        <v>3.54</v>
+      </c>
+      <c r="U131" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="V131" s="34"/>
+      <c r="W131" s="34"/>
+      <c r="X131" s="34"/>
+      <c r="Y131" s="34"/>
+      <c r="Z131" s="34"/>
+      <c r="AA131" s="34"/>
+      <c r="AB131" s="34"/>
+      <c r="AC131" s="34"/>
+      <c r="AD131" s="41">
+        <v>1.7</v>
+      </c>
+      <c r="AE131" s="41">
+        <v>1402</v>
+      </c>
+      <c r="AF131" s="41">
+        <v>769</v>
+      </c>
+      <c r="AG131" s="41">
+        <v>633</v>
+      </c>
+      <c r="AH131" s="41">
+        <v>765</v>
+      </c>
+      <c r="AI131" s="41">
+        <v>669</v>
+      </c>
+      <c r="AJ131" s="41">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="AK131" s="41">
+        <v>5.6680000000000001</v>
+      </c>
+      <c r="AL131" s="41">
+        <v>1.78</v>
+      </c>
+      <c r="AN131" s="41">
+        <v>768</v>
+      </c>
+      <c r="AO131" s="41">
+        <v>632</v>
+      </c>
+      <c r="AP131" s="41">
+        <v>786</v>
+      </c>
+      <c r="AQ131" s="41">
+        <v>644</v>
+      </c>
+      <c r="AR131" s="41">
+        <v>496.1</v>
+      </c>
+      <c r="AS131" s="41">
+        <v>6.24</v>
+      </c>
+      <c r="AT131" s="23"/>
+      <c r="AU131" s="23"/>
+      <c r="AV131" s="23"/>
+      <c r="AW131" s="23"/>
+      <c r="AX131" s="23"/>
+      <c r="AY131" s="23"/>
+      <c r="AZ131" s="23"/>
+      <c r="BA131" s="23"/>
+    </row>
+    <row r="132" spans="1:53">
+      <c r="A132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C132" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="D132" s="40">
+        <v>4</v>
+      </c>
+      <c r="E132" s="43">
+        <v>5716</v>
+      </c>
+      <c r="F132" s="44">
+        <v>3.22</v>
+      </c>
+      <c r="G132" s="43">
+        <v>8.18</v>
+      </c>
+      <c r="H132" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="I132" s="43">
+        <v>15</v>
+      </c>
+      <c r="J132" s="43">
+        <v>11</v>
+      </c>
+      <c r="K132" s="43">
+        <v>5894</v>
+      </c>
+      <c r="L132" s="43">
+        <v>1.17</v>
+      </c>
+      <c r="M132" s="43">
+        <v>4175</v>
+      </c>
+      <c r="N132" s="43">
+        <v>4</v>
+      </c>
+      <c r="O132" s="43">
+        <v>0.36</v>
+      </c>
+      <c r="P132" s="43">
+        <v>4175</v>
+      </c>
+      <c r="Q132" s="43">
+        <v>56.76</v>
+      </c>
+      <c r="R132" s="43">
+        <v>2.31</v>
+      </c>
+      <c r="S132" s="43">
+        <v>247.29</v>
+      </c>
+      <c r="T132" s="43">
+        <v>3.54</v>
+      </c>
+      <c r="U132" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="V132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="W132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="X132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC132" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD132" s="43">
+        <v>1.68</v>
+      </c>
+      <c r="AE132" s="43">
+        <v>1401</v>
+      </c>
+      <c r="AF132" s="43">
+        <v>768</v>
+      </c>
+      <c r="AG132" s="43">
+        <v>633</v>
+      </c>
+      <c r="AH132" s="43">
+        <v>768</v>
+      </c>
+      <c r="AI132" s="43">
+        <v>641.64</v>
+      </c>
+      <c r="AJ132" s="43">
+        <v>535</v>
+      </c>
+      <c r="AK132" s="43">
+        <v>5.55</v>
+      </c>
+      <c r="AL132" s="43">
+        <v>1.79</v>
+      </c>
+      <c r="AM132" s="43">
+        <v>1409</v>
+      </c>
+      <c r="AN132" s="43">
+        <v>771</v>
+      </c>
+      <c r="AO132" s="43">
+        <v>638</v>
+      </c>
+      <c r="AP132" s="43">
+        <v>771</v>
+      </c>
+      <c r="AQ132" s="43">
+        <v>653</v>
+      </c>
+      <c r="AR132" s="43">
+        <v>510</v>
+      </c>
+      <c r="AS132" s="43">
+        <v>6.23</v>
+      </c>
+      <c r="AT132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ132" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA132" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:53">
+      <c r="A133" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D133" s="40">
+        <v>4</v>
+      </c>
+      <c r="E133" s="43">
+        <v>6616</v>
+      </c>
+      <c r="F133" s="44">
+        <v>3.18</v>
+      </c>
+      <c r="G133" s="43">
+        <v>8.36</v>
+      </c>
+      <c r="H133" s="43">
+        <v>0.16</v>
+      </c>
+      <c r="I133" s="43">
+        <v>15</v>
+      </c>
+      <c r="J133" s="43">
+        <v>13</v>
+      </c>
+      <c r="K133" s="43">
+        <v>6313</v>
+      </c>
+      <c r="L133" s="43">
+        <v>1.33</v>
+      </c>
+      <c r="M133" s="43">
+        <v>5630</v>
+      </c>
+      <c r="N133" s="43">
+        <v>4</v>
+      </c>
+      <c r="O133" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="P133" s="43">
+        <v>5630</v>
+      </c>
+      <c r="Q133" s="43">
+        <v>57.18</v>
+      </c>
+      <c r="R133" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="S133" s="43">
+        <v>236.5</v>
+      </c>
+      <c r="T133" s="43">
+        <v>3.54</v>
+      </c>
+      <c r="U133" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="V133" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="W133" s="46">
+        <v>1393</v>
+      </c>
+      <c r="X133" s="46">
+        <v>634</v>
+      </c>
+      <c r="Y133" s="46">
+        <v>759</v>
+      </c>
+      <c r="Z133" s="46">
+        <v>634</v>
+      </c>
+      <c r="AA133" s="46">
+        <v>629</v>
+      </c>
+      <c r="AB133" s="46">
+        <v>645</v>
+      </c>
+      <c r="AC133" s="46">
+        <v>6.29</v>
+      </c>
+      <c r="AD133" s="43">
+        <v>1.66</v>
+      </c>
+      <c r="AE133" s="43">
+        <v>1403</v>
+      </c>
+      <c r="AF133" s="43">
+        <v>770</v>
+      </c>
+      <c r="AG133" s="43">
+        <v>633</v>
+      </c>
+      <c r="AH133" s="43">
+        <v>770</v>
+      </c>
+      <c r="AI133" s="43">
+        <v>640</v>
+      </c>
+      <c r="AJ133" s="43">
+        <v>545</v>
+      </c>
+      <c r="AK133" s="43">
+        <v>5.64</v>
+      </c>
+      <c r="AL133" s="43">
+        <v>1.78</v>
+      </c>
+      <c r="AM133" s="43">
+        <v>1405</v>
+      </c>
+      <c r="AN133" s="43">
+        <v>770</v>
+      </c>
+      <c r="AO133" s="43">
+        <v>635</v>
+      </c>
+      <c r="AP133" s="43">
+        <v>770</v>
+      </c>
+      <c r="AQ133" s="43">
+        <v>631</v>
+      </c>
+      <c r="AR133" s="43">
+        <v>519</v>
+      </c>
+      <c r="AS133" s="43">
+        <v>6.28</v>
+      </c>
+      <c r="AT133" s="43">
+        <v>1.78</v>
+      </c>
+      <c r="AU133" s="43">
+        <v>1405</v>
+      </c>
+      <c r="AV133" s="43">
+        <v>769</v>
+      </c>
+      <c r="AW133" s="43">
+        <v>636</v>
+      </c>
+      <c r="AX133" s="43">
+        <v>769</v>
+      </c>
+      <c r="AY133" s="43">
+        <v>640</v>
+      </c>
+      <c r="AZ133" s="43">
+        <v>437</v>
+      </c>
+      <c r="BA133" s="43">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:53">
+      <c r="A134" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="21">
+        <v>45755</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="D134" s="40">
+        <v>4</v>
+      </c>
+      <c r="E134" s="43">
+        <v>6400</v>
+      </c>
+      <c r="F134" s="42">
+        <v>3.77</v>
+      </c>
+      <c r="G134" s="43">
+        <v>8.32</v>
+      </c>
+      <c r="H134" s="43">
+        <v>0.13</v>
+      </c>
+      <c r="I134" s="43">
+        <v>15</v>
+      </c>
+      <c r="J134" s="43">
+        <v>13</v>
+      </c>
+      <c r="K134" s="43">
+        <v>6355</v>
+      </c>
+      <c r="L134" s="43">
+        <v>1.38</v>
+      </c>
+      <c r="M134" s="43">
+        <v>5617</v>
+      </c>
+      <c r="N134" s="43">
+        <v>4</v>
+      </c>
+      <c r="O134" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="P134" s="43">
+        <v>5630</v>
+      </c>
+      <c r="Q134" s="43">
+        <v>57.3</v>
+      </c>
+      <c r="R134" s="43">
+        <v>0.08</v>
+      </c>
+      <c r="S134" s="43">
+        <v>239</v>
+      </c>
+      <c r="T134" s="43">
+        <v>3.64</v>
+      </c>
+      <c r="U134" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="V134" s="43">
+        <v>1.75</v>
+      </c>
+      <c r="W134" s="43">
+        <v>1390</v>
+      </c>
+      <c r="X134" s="43">
+        <v>757</v>
+      </c>
+      <c r="Y134" s="43">
+        <v>633</v>
+      </c>
+      <c r="Z134" s="43">
+        <v>757</v>
+      </c>
+      <c r="AA134" s="43">
+        <v>653</v>
+      </c>
+      <c r="AB134" s="43">
+        <v>625</v>
+      </c>
+      <c r="AC134" s="43">
+        <v>6.24</v>
+      </c>
+      <c r="AD134" s="43">
+        <v>1.67</v>
+      </c>
+      <c r="AE134" s="43">
+        <v>1401</v>
+      </c>
+      <c r="AF134" s="43">
+        <v>770</v>
+      </c>
+      <c r="AG134" s="43">
+        <v>631</v>
+      </c>
+      <c r="AH134" s="43">
+        <v>770</v>
+      </c>
+      <c r="AI134" s="43">
+        <v>640</v>
+      </c>
+      <c r="AJ134" s="43">
+        <v>542</v>
+      </c>
+      <c r="AK134" s="43">
+        <v>5.69</v>
+      </c>
+      <c r="AL134" s="43">
+        <v>1.79</v>
+      </c>
+      <c r="AM134" s="43">
+        <v>1403</v>
+      </c>
+      <c r="AN134" s="43">
+        <v>766</v>
+      </c>
+      <c r="AO134" s="43">
+        <v>637</v>
+      </c>
+      <c r="AP134" s="43">
+        <v>766</v>
+      </c>
+      <c r="AQ134" s="43">
+        <v>662</v>
+      </c>
+      <c r="AR134" s="43">
+        <v>619</v>
+      </c>
+      <c r="AS134" s="43">
+        <v>6.34</v>
+      </c>
+      <c r="AT134" s="43">
+        <v>1.71</v>
+      </c>
+      <c r="AU134" s="43">
+        <v>1407</v>
+      </c>
+      <c r="AV134" s="43">
+        <v>771</v>
+      </c>
+      <c r="AW134" s="43">
+        <v>636</v>
+      </c>
+      <c r="AX134" s="43">
+        <v>771</v>
+      </c>
+      <c r="AY134" s="43">
+        <v>622</v>
+      </c>
+      <c r="AZ134" s="43">
+        <v>422</v>
+      </c>
+      <c r="BA134" s="43">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:53">
+      <c r="A135" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="48">
+        <v>45755</v>
+      </c>
+      <c r="C135" s="49">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D135" s="40">
+        <v>4</v>
+      </c>
+      <c r="E135" s="43">
+        <v>6783</v>
+      </c>
+      <c r="F135" s="42">
+        <v>4.24</v>
+      </c>
+      <c r="G135" s="43">
+        <v>8.31</v>
+      </c>
+      <c r="H135" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="I135" s="43">
+        <v>15</v>
+      </c>
+      <c r="J135" s="43">
+        <v>13</v>
+      </c>
+      <c r="K135" s="43">
+        <v>6224</v>
+      </c>
+      <c r="L135" s="43">
+        <v>1.39</v>
+      </c>
+      <c r="M135" s="43">
+        <v>5636</v>
+      </c>
+      <c r="N135" s="43">
+        <v>4</v>
+      </c>
+      <c r="O135" s="43">
+        <v>0.62</v>
+      </c>
+      <c r="P135" s="43">
+        <v>5687</v>
+      </c>
+      <c r="Q135" s="43">
+        <v>57.41</v>
+      </c>
+      <c r="R135" s="43">
+        <v>0.08</v>
+      </c>
+      <c r="S135" s="43">
+        <v>176</v>
+      </c>
+      <c r="T135" s="43">
+        <v>3.64</v>
+      </c>
+      <c r="U135" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="V135" s="43">
+        <v>1.77</v>
+      </c>
+      <c r="W135" s="43">
+        <v>1419</v>
+      </c>
+      <c r="X135" s="43">
+        <v>771</v>
+      </c>
+      <c r="Y135" s="43">
+        <v>648</v>
+      </c>
+      <c r="Z135" s="43">
+        <v>761</v>
+      </c>
+      <c r="AA135" s="43">
+        <v>651</v>
+      </c>
+      <c r="AB135" s="43">
+        <v>608</v>
+      </c>
+      <c r="AC135" s="43">
+        <v>6.26</v>
+      </c>
+      <c r="AD135" s="43">
+        <v>1.68</v>
+      </c>
+      <c r="AE135" s="43">
+        <v>1403</v>
+      </c>
+      <c r="AF135" s="43">
+        <v>766</v>
+      </c>
+      <c r="AG135" s="43">
+        <v>633</v>
+      </c>
+      <c r="AH135" s="43">
+        <v>768</v>
+      </c>
+      <c r="AI135" s="43">
+        <v>639</v>
+      </c>
+      <c r="AJ135" s="43">
+        <v>539</v>
+      </c>
+      <c r="AK135" s="43">
+        <v>5.64</v>
+      </c>
+      <c r="AL135" s="43">
+        <v>1.83</v>
+      </c>
+      <c r="AM135" s="43">
+        <v>1400</v>
+      </c>
+      <c r="AN135" s="43">
+        <v>765</v>
+      </c>
+      <c r="AO135" s="43">
+        <v>637</v>
+      </c>
+      <c r="AP135" s="43">
+        <v>794</v>
+      </c>
+      <c r="AQ135" s="43">
+        <v>634</v>
+      </c>
+      <c r="AR135" s="43">
+        <v>512</v>
+      </c>
+      <c r="AS135" s="43">
+        <v>6.31</v>
+      </c>
+      <c r="AT135" s="43">
+        <v>1.71</v>
+      </c>
+      <c r="AU135" s="43">
+        <v>1405</v>
+      </c>
+      <c r="AV135" s="43">
+        <v>770</v>
+      </c>
+      <c r="AW135" s="43">
+        <v>635</v>
+      </c>
+      <c r="AX135" s="43">
+        <v>775</v>
+      </c>
+      <c r="AY135" s="43">
+        <v>621</v>
+      </c>
+      <c r="AZ135" s="43">
+        <v>412</v>
+      </c>
+      <c r="BA135" s="43">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:53">
+      <c r="A136" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="48">
+        <v>45756</v>
+      </c>
+      <c r="C136" s="49">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D136" s="43">
+        <v>4</v>
+      </c>
+      <c r="E136" s="43">
+        <v>6638</v>
+      </c>
+      <c r="F136" s="42">
+        <v>5.87</v>
+      </c>
+      <c r="G136" s="43">
+        <v>8.32</v>
+      </c>
+      <c r="H136" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="I136" s="43">
+        <v>15</v>
+      </c>
+      <c r="J136" s="43">
+        <v>13</v>
+      </c>
+      <c r="K136" s="43">
+        <v>5881</v>
+      </c>
+      <c r="L136" s="43">
+        <v>1.41</v>
+      </c>
+      <c r="M136" s="43">
+        <v>5647</v>
+      </c>
+      <c r="N136" s="43">
+        <v>4</v>
+      </c>
+      <c r="O136" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="P136" s="43">
+        <v>5608</v>
+      </c>
+      <c r="Q136" s="43">
+        <v>57.47</v>
+      </c>
+      <c r="R136" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="S136" s="43">
+        <v>266</v>
+      </c>
+      <c r="T136" s="43">
+        <v>3.64</v>
+      </c>
+      <c r="U136" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="V136" s="43">
+        <v>1.76</v>
+      </c>
+      <c r="W136" s="43">
+        <v>1412</v>
+      </c>
+      <c r="X136" s="43">
+        <v>771</v>
+      </c>
+      <c r="Y136" s="43">
+        <v>643</v>
+      </c>
+      <c r="Z136" s="43">
+        <v>757</v>
+      </c>
+      <c r="AA136" s="43">
+        <v>646</v>
+      </c>
+      <c r="AB136" s="43">
+        <v>587</v>
+      </c>
+      <c r="AC136" s="43">
+        <v>6.25</v>
+      </c>
+      <c r="AD136" s="43">
+        <v>1.67</v>
+      </c>
+      <c r="AE136" s="43">
+        <v>1399</v>
+      </c>
+      <c r="AF136" s="43">
+        <v>768</v>
+      </c>
+      <c r="AG136" s="43">
+        <v>630</v>
+      </c>
+      <c r="AH136" s="43">
+        <v>774</v>
+      </c>
+      <c r="AI136" s="43">
+        <v>640</v>
+      </c>
+      <c r="AJ136" s="43">
+        <v>531</v>
+      </c>
+      <c r="AK136" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="AL136" s="43">
+        <v>1.79</v>
+      </c>
+      <c r="AM136" s="43">
+        <v>1404</v>
+      </c>
+      <c r="AN136" s="43">
+        <v>769</v>
+      </c>
+      <c r="AO136" s="43">
+        <v>634</v>
+      </c>
+      <c r="AP136" s="43">
+        <v>771</v>
+      </c>
+      <c r="AQ136" s="43">
+        <v>627</v>
+      </c>
+      <c r="AR136" s="43">
+        <v>498</v>
+      </c>
+      <c r="AS136" s="43">
+        <v>6.31</v>
+      </c>
+      <c r="AT136" s="43">
+        <v>1.7</v>
+      </c>
+      <c r="AU136" s="43">
+        <v>1411</v>
+      </c>
+      <c r="AV136" s="43">
+        <v>772</v>
+      </c>
+      <c r="AW136" s="43">
+        <v>636</v>
+      </c>
+      <c r="AX136" s="43">
+        <v>770</v>
+      </c>
+      <c r="AY136" s="43">
+        <v>627</v>
+      </c>
+      <c r="AZ136" s="43">
+        <v>392</v>
+      </c>
+      <c r="BA136" s="43">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:53">
+      <c r="A137" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" s="48">
+        <v>45756</v>
+      </c>
+      <c r="C137" s="49">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D137" s="43">
+        <v>4</v>
+      </c>
+      <c r="E137" s="43">
+        <v>6333</v>
+      </c>
+      <c r="F137" s="42">
+        <v>5.21</v>
+      </c>
+      <c r="G137" s="43">
+        <v>8.32</v>
+      </c>
+      <c r="H137" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="I137" s="43">
+        <v>15</v>
+      </c>
+      <c r="J137" s="43">
+        <v>13</v>
+      </c>
+      <c r="K137" s="43">
+        <v>6146</v>
+      </c>
+      <c r="L137" s="43">
+        <v>1.44</v>
+      </c>
+      <c r="M137" s="43">
+        <v>5628</v>
+      </c>
+      <c r="N137" s="43">
+        <v>4</v>
+      </c>
+      <c r="O137" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="P137" s="43">
+        <v>5672</v>
+      </c>
+      <c r="Q137" s="43">
+        <v>57.48</v>
+      </c>
+      <c r="R137" s="43">
+        <v>0.04</v>
+      </c>
+      <c r="S137" s="43">
+        <v>239</v>
+      </c>
+      <c r="T137" s="43">
+        <v>3.58</v>
+      </c>
+      <c r="U137" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="V137" s="43">
+        <v>1.78</v>
+      </c>
+      <c r="W137" s="43">
+        <v>1413</v>
+      </c>
+      <c r="X137" s="43">
+        <v>768</v>
+      </c>
+      <c r="Y137" s="43">
+        <v>642</v>
+      </c>
+      <c r="Z137" s="43">
+        <v>760</v>
+      </c>
+      <c r="AA137" s="43">
+        <v>643</v>
+      </c>
+      <c r="AB137" s="43">
+        <v>582</v>
+      </c>
+      <c r="AC137" s="43">
+        <v>6.26</v>
+      </c>
+      <c r="AD137" s="43">
+        <v>1.68</v>
+      </c>
+      <c r="AE137" s="43">
+        <v>1401</v>
+      </c>
+      <c r="AF137" s="43">
+        <v>770</v>
+      </c>
+      <c r="AG137" s="43">
+        <v>631</v>
+      </c>
+      <c r="AH137" s="43">
+        <v>771</v>
+      </c>
+      <c r="AI137" s="43">
+        <v>638</v>
+      </c>
+      <c r="AJ137" s="43">
+        <v>530</v>
+      </c>
+      <c r="AK137" s="43">
+        <v>5.59</v>
+      </c>
+      <c r="AL137" s="43">
+        <v>1.8</v>
+      </c>
+      <c r="AM137" s="43">
+        <v>1401</v>
+      </c>
+      <c r="AN137" s="43">
+        <v>769</v>
+      </c>
+      <c r="AO137" s="43">
+        <v>633</v>
+      </c>
+      <c r="AP137" s="43">
+        <v>784</v>
+      </c>
+      <c r="AQ137" s="43">
+        <v>628</v>
+      </c>
+      <c r="AR137" s="43">
+        <v>501</v>
+      </c>
+      <c r="AS137" s="43">
+        <v>6.32</v>
+      </c>
+      <c r="AT137" s="43">
+        <v>1.7</v>
+      </c>
+      <c r="AU137" s="43">
+        <v>1410</v>
+      </c>
+      <c r="AV137" s="43">
+        <v>771</v>
+      </c>
+      <c r="AW137" s="43">
+        <v>639</v>
+      </c>
+      <c r="AX137" s="43">
+        <v>773</v>
+      </c>
+      <c r="AY137" s="43">
+        <v>628</v>
+      </c>
+      <c r="AZ137" s="43">
+        <v>391</v>
+      </c>
+      <c r="BA137" s="43">
+        <v>5.65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21177,7 +22582,9 @@
     <mergeCell ref="N1:U1"/>
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21186,10 +22593,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -21197,18 +22604,18 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>8</v>
@@ -24109,7 +25516,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -24379,7 +25786,7 @@
     <row r="107" spans="1:7">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -24679,7 +26086,7 @@
     <row r="117" spans="1:7">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -24709,7 +26116,7 @@
     <row r="118" spans="1:7">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -24919,7 +26326,7 @@
     <row r="125" spans="1:7">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -25004,6 +26411,276 @@
       <c r="G127" t="str">
         <f>SUIVI!H128</f>
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!D129</f>
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!E129</f>
+        <v>4877</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!F129</f>
+        <v>3.12</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!G129</f>
+        <v>8.33</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!H129</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!D130</f>
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!E130</f>
+        <v>5046</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!F130</f>
+        <v>3.13</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!G130</f>
+        <v>8.33</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!H130</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!D131</f>
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!E131</f>
+        <v>4192</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!F131</f>
+        <v>3.01</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!G131</f>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!H131</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131">
+        <f>SUIVI!D132</f>
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <f>SUIVI!E132</f>
+        <v>5716</v>
+      </c>
+      <c r="E131">
+        <f>SUIVI!F132</f>
+        <v>3.22</v>
+      </c>
+      <c r="F131">
+        <f>SUIVI!G132</f>
+        <v>8.18</v>
+      </c>
+      <c r="G131">
+        <f>SUIVI!H132</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!D133</f>
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!E133</f>
+        <v>6616</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!F133</f>
+        <v>3.18</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!G133</f>
+        <v>8.36</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!H133</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!D134</f>
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!E134</f>
+        <v>6400</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!F134</f>
+        <v>3.77</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!G134</f>
+        <v>8.32</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!H134</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!D135</f>
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!E135</f>
+        <v>6783</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!F135</f>
+        <v>4.24</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!G135</f>
+        <v>8.31</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!H135</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!D136</f>
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!E136</f>
+        <v>6638</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!F136</f>
+        <v>5.87</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!G136</f>
+        <v>8.32</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!H136</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!D137</f>
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!E137</f>
+        <v>6333</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!F137</f>
+        <v>5.21</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!G137</f>
+        <v>8.32</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!H137</f>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -25016,10 +26693,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -25034,10 +26711,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="57.6">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>8</v>
@@ -27938,7 +29615,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -28208,7 +29885,7 @@
     <row r="107" spans="1:7">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -28508,7 +30185,7 @@
     <row r="117" spans="1:7">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -28538,7 +30215,7 @@
     <row r="118" spans="1:7">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -28748,7 +30425,7 @@
     <row r="125" spans="1:7">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -28833,6 +30510,276 @@
       <c r="G127">
         <f>SUIVI!M128</f>
         <v>2841</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!I129</f>
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!J129</f>
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!K129</f>
+        <v>4276</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!L129</f>
+        <v>1.02</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!M129</f>
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!I130</f>
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!J130</f>
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!K130</f>
+        <v>4867</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!L130</f>
+        <v>1.01</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!M130</f>
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!I131</f>
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!J131</f>
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!K131</f>
+        <v>3400</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!L131</f>
+        <v>1.07</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!M131</f>
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131">
+        <f>SUIVI!I132</f>
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <f>SUIVI!J132</f>
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <f>SUIVI!K132</f>
+        <v>5894</v>
+      </c>
+      <c r="F131">
+        <f>SUIVI!L132</f>
+        <v>1.17</v>
+      </c>
+      <c r="G131">
+        <f>SUIVI!M132</f>
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!I133</f>
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!J133</f>
+        <v>13</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!K133</f>
+        <v>6313</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!L133</f>
+        <v>1.33</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!M133</f>
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!I134</f>
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!J134</f>
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!K134</f>
+        <v>6355</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!L134</f>
+        <v>1.38</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!M134</f>
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!I135</f>
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!J135</f>
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!K135</f>
+        <v>6224</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!L135</f>
+        <v>1.39</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!M135</f>
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!I136</f>
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!J136</f>
+        <v>13</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!K136</f>
+        <v>5881</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!L136</f>
+        <v>1.41</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!M136</f>
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!I137</f>
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!J137</f>
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!K137</f>
+        <v>6146</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!L137</f>
+        <v>1.44</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!M137</f>
+        <v>5628</v>
       </c>
     </row>
   </sheetData>
@@ -28845,10 +30792,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -28856,21 +30803,21 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>8</v>
@@ -32932,7 +34879,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -33310,7 +35257,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -33730,7 +35677,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -33772,7 +35719,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -34066,7 +36013,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -34186,6 +36133,384 @@
       </c>
       <c r="J127" t="str">
         <f>SUIVI!U128</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!N129</f>
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!O129</f>
+        <v>0.16</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!P129</f>
+        <v>2829</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!Q129</f>
+        <v>57.66</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!R129</f>
+        <v>0.31</v>
+      </c>
+      <c r="H128">
+        <f>SUIVI!S129</f>
+        <v>233</v>
+      </c>
+      <c r="I128">
+        <f>SUIVI!T129</f>
+        <v>3.61</v>
+      </c>
+      <c r="J128">
+        <f>SUIVI!U129</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!N130</f>
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!O130</f>
+        <v>0.16</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!P130</f>
+        <v>2831</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!Q130</f>
+        <v>57.24</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!R130</f>
+        <v>0.34</v>
+      </c>
+      <c r="H129">
+        <f>SUIVI!S130</f>
+        <v>240</v>
+      </c>
+      <c r="I129">
+        <f>SUIVI!T130</f>
+        <v>3.61</v>
+      </c>
+      <c r="J129">
+        <f>SUIVI!U130</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!N131</f>
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!O131</f>
+        <v>0.16</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!P131</f>
+        <v>2830</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!Q131</f>
+        <v>54.27</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!R131</f>
+        <v>0.34</v>
+      </c>
+      <c r="H130">
+        <f>SUIVI!S131</f>
+        <v>241.2</v>
+      </c>
+      <c r="I130">
+        <f>SUIVI!T131</f>
+        <v>3.54</v>
+      </c>
+      <c r="J130">
+        <f>SUIVI!U131</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131">
+        <f>SUIVI!N132</f>
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <f>SUIVI!O132</f>
+        <v>0.36</v>
+      </c>
+      <c r="E131">
+        <f>SUIVI!P132</f>
+        <v>4175</v>
+      </c>
+      <c r="F131">
+        <f>SUIVI!Q132</f>
+        <v>56.76</v>
+      </c>
+      <c r="G131">
+        <f>SUIVI!R132</f>
+        <v>2.31</v>
+      </c>
+      <c r="H131">
+        <f>SUIVI!S132</f>
+        <v>247.29</v>
+      </c>
+      <c r="I131">
+        <f>SUIVI!T132</f>
+        <v>3.54</v>
+      </c>
+      <c r="J131">
+        <f>SUIVI!U132</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!N133</f>
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!O133</f>
+        <v>0.61</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!P133</f>
+        <v>5630</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!Q133</f>
+        <v>57.18</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!R133</f>
+        <v>1.45</v>
+      </c>
+      <c r="H132">
+        <f>SUIVI!S133</f>
+        <v>236.5</v>
+      </c>
+      <c r="I132">
+        <f>SUIVI!T133</f>
+        <v>3.54</v>
+      </c>
+      <c r="J132">
+        <f>SUIVI!U133</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!N134</f>
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!O134</f>
+        <v>0.6</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!P134</f>
+        <v>5630</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!Q134</f>
+        <v>57.3</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!R134</f>
+        <v>0.08</v>
+      </c>
+      <c r="H133">
+        <f>SUIVI!S134</f>
+        <v>239</v>
+      </c>
+      <c r="I133">
+        <f>SUIVI!T134</f>
+        <v>3.64</v>
+      </c>
+      <c r="J133">
+        <f>SUIVI!U134</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!N135</f>
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!O135</f>
+        <v>0.62</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!P135</f>
+        <v>5687</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!Q135</f>
+        <v>57.41</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!R135</f>
+        <v>0.08</v>
+      </c>
+      <c r="H134">
+        <f>SUIVI!S135</f>
+        <v>176</v>
+      </c>
+      <c r="I134">
+        <f>SUIVI!T135</f>
+        <v>3.64</v>
+      </c>
+      <c r="J134">
+        <f>SUIVI!U135</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!N136</f>
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!O136</f>
+        <v>0.6</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!P136</f>
+        <v>5608</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!Q136</f>
+        <v>57.47</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!R136</f>
+        <v>0.02</v>
+      </c>
+      <c r="H135">
+        <f>SUIVI!S136</f>
+        <v>266</v>
+      </c>
+      <c r="I135">
+        <f>SUIVI!T136</f>
+        <v>3.64</v>
+      </c>
+      <c r="J135">
+        <f>SUIVI!U136</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!N137</f>
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!O137</f>
+        <v>0.61</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!P137</f>
+        <v>5672</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!Q137</f>
+        <v>57.48</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!R137</f>
+        <v>0.04</v>
+      </c>
+      <c r="H136">
+        <f>SUIVI!S137</f>
+        <v>239</v>
+      </c>
+      <c r="I136">
+        <f>SUIVI!T137</f>
+        <v>3.58</v>
+      </c>
+      <c r="J136">
+        <f>SUIVI!U137</f>
         <v>0.01</v>
       </c>
     </row>
@@ -34199,10 +36524,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -34212,10 +36537,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -38277,7 +40602,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -38655,7 +40980,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -39075,7 +41400,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -39117,7 +41442,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -39411,7 +41736,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -39532,6 +41857,384 @@
       <c r="J127">
         <f>SUIVI!AC128</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!V129</f>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!W129</f>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!X129</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!Y129</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!Z129</f>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f>SUIVI!AA129</f>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f>SUIVI!AB129</f>
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f>SUIVI!AC129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!V130</f>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!W130</f>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!X130</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!Y130</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!Z130</f>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f>SUIVI!AA130</f>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f>SUIVI!AB130</f>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f>SUIVI!AC130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!V131</f>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!W131</f>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!X131</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!Y131</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!Z131</f>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f>SUIVI!AA131</f>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f>SUIVI!AB131</f>
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f>SUIVI!AC131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131" t="str">
+        <f>SUIVI!V132</f>
+        <v>HS</v>
+      </c>
+      <c r="D131" t="str">
+        <f>SUIVI!W132</f>
+        <v>HS</v>
+      </c>
+      <c r="E131" t="str">
+        <f>SUIVI!X132</f>
+        <v>HS</v>
+      </c>
+      <c r="F131" t="str">
+        <f>SUIVI!Y132</f>
+        <v>HS</v>
+      </c>
+      <c r="G131" t="str">
+        <f>SUIVI!Z132</f>
+        <v>HS</v>
+      </c>
+      <c r="H131" t="str">
+        <f>SUIVI!AA132</f>
+        <v>HS</v>
+      </c>
+      <c r="I131" t="str">
+        <f>SUIVI!AB132</f>
+        <v>HS</v>
+      </c>
+      <c r="J131" t="str">
+        <f>SUIVI!AC132</f>
+        <v>HS</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!V133</f>
+        <v>1.75</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!W133</f>
+        <v>1393</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!X133</f>
+        <v>634</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!Y133</f>
+        <v>759</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!Z133</f>
+        <v>634</v>
+      </c>
+      <c r="H132">
+        <f>SUIVI!AA133</f>
+        <v>629</v>
+      </c>
+      <c r="I132">
+        <f>SUIVI!AB133</f>
+        <v>645</v>
+      </c>
+      <c r="J132">
+        <f>SUIVI!AC133</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!V134</f>
+        <v>1.75</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!W134</f>
+        <v>1390</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!X134</f>
+        <v>757</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!Y134</f>
+        <v>633</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!Z134</f>
+        <v>757</v>
+      </c>
+      <c r="H133">
+        <f>SUIVI!AA134</f>
+        <v>653</v>
+      </c>
+      <c r="I133">
+        <f>SUIVI!AB134</f>
+        <v>625</v>
+      </c>
+      <c r="J133">
+        <f>SUIVI!AC134</f>
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!V135</f>
+        <v>1.77</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!W135</f>
+        <v>1419</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!X135</f>
+        <v>771</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!Y135</f>
+        <v>648</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!Z135</f>
+        <v>761</v>
+      </c>
+      <c r="H134">
+        <f>SUIVI!AA135</f>
+        <v>651</v>
+      </c>
+      <c r="I134">
+        <f>SUIVI!AB135</f>
+        <v>608</v>
+      </c>
+      <c r="J134">
+        <f>SUIVI!AC135</f>
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!V136</f>
+        <v>1.76</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!W136</f>
+        <v>1412</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!X136</f>
+        <v>771</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!Y136</f>
+        <v>643</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!Z136</f>
+        <v>757</v>
+      </c>
+      <c r="H135">
+        <f>SUIVI!AA136</f>
+        <v>646</v>
+      </c>
+      <c r="I135">
+        <f>SUIVI!AB136</f>
+        <v>587</v>
+      </c>
+      <c r="J135">
+        <f>SUIVI!AC136</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!V137</f>
+        <v>1.78</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!W137</f>
+        <v>1413</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!X137</f>
+        <v>768</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!Y137</f>
+        <v>642</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!Z137</f>
+        <v>760</v>
+      </c>
+      <c r="H136">
+        <f>SUIVI!AA137</f>
+        <v>643</v>
+      </c>
+      <c r="I136">
+        <f>SUIVI!AB137</f>
+        <v>582</v>
+      </c>
+      <c r="J136">
+        <f>SUIVI!AC137</f>
+        <v>6.26</v>
       </c>
     </row>
   </sheetData>
@@ -39544,31 +42247,30 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -43630,7 +46332,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -44008,7 +46710,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -44428,7 +47130,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -44470,7 +47172,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -44764,7 +47466,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -44885,6 +47587,384 @@
       <c r="J127" t="str">
         <f>SUIVI!AK128</f>
         <v>5.84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!AD129</f>
+        <v>1.69</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!AE129</f>
+        <v>1401</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!AF129</f>
+        <v>769</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!AG129</f>
+        <v>632</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!AH129</f>
+        <v>766</v>
+      </c>
+      <c r="H128">
+        <f>SUIVI!AI129</f>
+        <v>649</v>
+      </c>
+      <c r="I128">
+        <f>SUIVI!AJ129</f>
+        <v>526</v>
+      </c>
+      <c r="J128">
+        <f>SUIVI!AK129</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!AD130</f>
+        <v>1.7</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!AE130</f>
+        <v>1400</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!AF130</f>
+        <v>771</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!AG130</f>
+        <v>629</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!AH130</f>
+        <v>772</v>
+      </c>
+      <c r="H129">
+        <f>SUIVI!AI130</f>
+        <v>632</v>
+      </c>
+      <c r="I129">
+        <f>SUIVI!AJ130</f>
+        <v>521.5</v>
+      </c>
+      <c r="J129">
+        <f>SUIVI!AK130</f>
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!AD131</f>
+        <v>1.7</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!AE131</f>
+        <v>1402</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!AF131</f>
+        <v>769</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!AG131</f>
+        <v>633</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!AH131</f>
+        <v>765</v>
+      </c>
+      <c r="H130">
+        <f>SUIVI!AI131</f>
+        <v>669</v>
+      </c>
+      <c r="I130">
+        <f>SUIVI!AJ131</f>
+        <v>520.70000000000005</v>
+      </c>
+      <c r="J130">
+        <f>SUIVI!AK131</f>
+        <v>5.6680000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131">
+        <f>SUIVI!AD132</f>
+        <v>1.68</v>
+      </c>
+      <c r="D131">
+        <f>SUIVI!AE132</f>
+        <v>1401</v>
+      </c>
+      <c r="E131">
+        <f>SUIVI!AF132</f>
+        <v>768</v>
+      </c>
+      <c r="F131">
+        <f>SUIVI!AG132</f>
+        <v>633</v>
+      </c>
+      <c r="G131">
+        <f>SUIVI!AH132</f>
+        <v>768</v>
+      </c>
+      <c r="H131">
+        <f>SUIVI!AI132</f>
+        <v>641.64</v>
+      </c>
+      <c r="I131">
+        <f>SUIVI!AJ132</f>
+        <v>535</v>
+      </c>
+      <c r="J131">
+        <f>SUIVI!AK132</f>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!AD133</f>
+        <v>1.66</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!AE133</f>
+        <v>1403</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!AF133</f>
+        <v>770</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!AG133</f>
+        <v>633</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!AH133</f>
+        <v>770</v>
+      </c>
+      <c r="H132">
+        <f>SUIVI!AI133</f>
+        <v>640</v>
+      </c>
+      <c r="I132">
+        <f>SUIVI!AJ133</f>
+        <v>545</v>
+      </c>
+      <c r="J132">
+        <f>SUIVI!AK133</f>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!AD134</f>
+        <v>1.67</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!AE134</f>
+        <v>1401</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!AF134</f>
+        <v>770</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!AG134</f>
+        <v>631</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!AH134</f>
+        <v>770</v>
+      </c>
+      <c r="H133">
+        <f>SUIVI!AI134</f>
+        <v>640</v>
+      </c>
+      <c r="I133">
+        <f>SUIVI!AJ134</f>
+        <v>542</v>
+      </c>
+      <c r="J133">
+        <f>SUIVI!AK134</f>
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!AD135</f>
+        <v>1.68</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!AE135</f>
+        <v>1403</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!AF135</f>
+        <v>766</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!AG135</f>
+        <v>633</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!AH135</f>
+        <v>768</v>
+      </c>
+      <c r="H134">
+        <f>SUIVI!AI135</f>
+        <v>639</v>
+      </c>
+      <c r="I134">
+        <f>SUIVI!AJ135</f>
+        <v>539</v>
+      </c>
+      <c r="J134">
+        <f>SUIVI!AK135</f>
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!AD136</f>
+        <v>1.67</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!AE136</f>
+        <v>1399</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!AF136</f>
+        <v>768</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!AG136</f>
+        <v>630</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!AH136</f>
+        <v>774</v>
+      </c>
+      <c r="H135">
+        <f>SUIVI!AI136</f>
+        <v>640</v>
+      </c>
+      <c r="I135">
+        <f>SUIVI!AJ136</f>
+        <v>531</v>
+      </c>
+      <c r="J135">
+        <f>SUIVI!AK136</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!AD137</f>
+        <v>1.68</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!AE137</f>
+        <v>1401</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!AF137</f>
+        <v>770</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!AG137</f>
+        <v>631</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!AH137</f>
+        <v>771</v>
+      </c>
+      <c r="H136">
+        <f>SUIVI!AI137</f>
+        <v>638</v>
+      </c>
+      <c r="I136">
+        <f>SUIVI!AJ137</f>
+        <v>530</v>
+      </c>
+      <c r="J136">
+        <f>SUIVI!AK137</f>
+        <v>5.59</v>
       </c>
     </row>
   </sheetData>
@@ -44897,31 +47977,30 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -48983,7 +52062,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -49361,7 +52440,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -49781,7 +52860,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -49823,7 +52902,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -50117,7 +53196,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -50238,6 +53317,384 @@
       <c r="J127" t="str">
         <f>SUIVI!AS128</f>
         <v>6.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!AL129</f>
+        <v>1.8</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!AM129</f>
+        <v>1408</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!AN129</f>
+        <v>768</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!AO129</f>
+        <v>639</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!AP129</f>
+        <v>780</v>
+      </c>
+      <c r="H128">
+        <f>SUIVI!AQ129</f>
+        <v>643</v>
+      </c>
+      <c r="I128">
+        <f>SUIVI!AR129</f>
+        <v>495.2</v>
+      </c>
+      <c r="J128">
+        <f>SUIVI!AS129</f>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!AL130</f>
+        <v>1.78</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!AM130</f>
+        <v>1401</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!AN130</f>
+        <v>769</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!AO130</f>
+        <v>632</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!AP130</f>
+        <v>781</v>
+      </c>
+      <c r="H129">
+        <f>SUIVI!AQ130</f>
+        <v>642</v>
+      </c>
+      <c r="I129">
+        <f>SUIVI!AR130</f>
+        <v>497.7</v>
+      </c>
+      <c r="J129">
+        <f>SUIVI!AS130</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!AL131</f>
+        <v>1.78</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!AM131</f>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!AN131</f>
+        <v>768</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!AO131</f>
+        <v>632</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!AP131</f>
+        <v>786</v>
+      </c>
+      <c r="H130">
+        <f>SUIVI!AQ131</f>
+        <v>644</v>
+      </c>
+      <c r="I130">
+        <f>SUIVI!AR131</f>
+        <v>496.1</v>
+      </c>
+      <c r="J130">
+        <f>SUIVI!AS131</f>
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131">
+        <f>SUIVI!AL132</f>
+        <v>1.79</v>
+      </c>
+      <c r="D131">
+        <f>SUIVI!AM132</f>
+        <v>1409</v>
+      </c>
+      <c r="E131">
+        <f>SUIVI!AN132</f>
+        <v>771</v>
+      </c>
+      <c r="F131">
+        <f>SUIVI!AO132</f>
+        <v>638</v>
+      </c>
+      <c r="G131">
+        <f>SUIVI!AP132</f>
+        <v>771</v>
+      </c>
+      <c r="H131">
+        <f>SUIVI!AQ132</f>
+        <v>653</v>
+      </c>
+      <c r="I131">
+        <f>SUIVI!AR132</f>
+        <v>510</v>
+      </c>
+      <c r="J131">
+        <f>SUIVI!AS132</f>
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!AL133</f>
+        <v>1.78</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!AM133</f>
+        <v>1405</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!AN133</f>
+        <v>770</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!AO133</f>
+        <v>635</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!AP133</f>
+        <v>770</v>
+      </c>
+      <c r="H132">
+        <f>SUIVI!AQ133</f>
+        <v>631</v>
+      </c>
+      <c r="I132">
+        <f>SUIVI!AR133</f>
+        <v>519</v>
+      </c>
+      <c r="J132">
+        <f>SUIVI!AS133</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!AL134</f>
+        <v>1.79</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!AM134</f>
+        <v>1403</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!AN134</f>
+        <v>766</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!AO134</f>
+        <v>637</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!AP134</f>
+        <v>766</v>
+      </c>
+      <c r="H133">
+        <f>SUIVI!AQ134</f>
+        <v>662</v>
+      </c>
+      <c r="I133">
+        <f>SUIVI!AR134</f>
+        <v>619</v>
+      </c>
+      <c r="J133">
+        <f>SUIVI!AS134</f>
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!AL135</f>
+        <v>1.83</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!AM135</f>
+        <v>1400</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!AN135</f>
+        <v>765</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!AO135</f>
+        <v>637</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!AP135</f>
+        <v>794</v>
+      </c>
+      <c r="H134">
+        <f>SUIVI!AQ135</f>
+        <v>634</v>
+      </c>
+      <c r="I134">
+        <f>SUIVI!AR135</f>
+        <v>512</v>
+      </c>
+      <c r="J134">
+        <f>SUIVI!AS135</f>
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!AL136</f>
+        <v>1.79</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!AM136</f>
+        <v>1404</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!AN136</f>
+        <v>769</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!AO136</f>
+        <v>634</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!AP136</f>
+        <v>771</v>
+      </c>
+      <c r="H135">
+        <f>SUIVI!AQ136</f>
+        <v>627</v>
+      </c>
+      <c r="I135">
+        <f>SUIVI!AR136</f>
+        <v>498</v>
+      </c>
+      <c r="J135">
+        <f>SUIVI!AS136</f>
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!AL137</f>
+        <v>1.8</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!AM137</f>
+        <v>1401</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!AN137</f>
+        <v>769</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!AO137</f>
+        <v>633</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!AP137</f>
+        <v>784</v>
+      </c>
+      <c r="H136">
+        <f>SUIVI!AQ137</f>
+        <v>628</v>
+      </c>
+      <c r="I136">
+        <f>SUIVI!AR137</f>
+        <v>501</v>
+      </c>
+      <c r="J136">
+        <f>SUIVI!AS137</f>
+        <v>6.32</v>
       </c>
     </row>
   </sheetData>
@@ -50250,10 +53707,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -50263,10 +53720,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -54328,7 +57785,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>45752</v>
+        <v>4</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -54706,7 +58163,7 @@
     <row r="107" spans="1:10">
       <c r="A107" s="38">
         <f>SUIVI!B108</f>
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="B107" s="39">
         <f>SUIVI!C108</f>
@@ -55126,7 +58583,7 @@
     <row r="117" spans="1:10">
       <c r="A117" s="38">
         <f>SUIVI!B118</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B117" s="39">
         <f>SUIVI!C118</f>
@@ -55168,7 +58625,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="38">
         <f>SUIVI!B119</f>
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B118" s="39">
         <f>SUIVI!C119</f>
@@ -55462,7 +58919,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="38">
         <f>SUIVI!B126</f>
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="B125" s="39">
         <f>SUIVI!C126</f>
@@ -55585,6 +59042,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="38">
+        <f>SUIVI!B129</f>
+        <v>45755</v>
+      </c>
+      <c r="B128" s="39">
+        <f>SUIVI!C129</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128">
+        <f>SUIVI!AT129</f>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <f>SUIVI!AU129</f>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f>SUIVI!AV129</f>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f>SUIVI!AW129</f>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f>SUIVI!AX129</f>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f>SUIVI!AY129</f>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f>SUIVI!AZ129</f>
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f>SUIVI!BA129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="38">
+        <f>SUIVI!B130</f>
+        <v>45755</v>
+      </c>
+      <c r="B129" s="39">
+        <f>SUIVI!C130</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129">
+        <f>SUIVI!AT130</f>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f>SUIVI!AU130</f>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f>SUIVI!AV130</f>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f>SUIVI!AW130</f>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f>SUIVI!AX130</f>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f>SUIVI!AY130</f>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f>SUIVI!AZ130</f>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f>SUIVI!BA130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="38">
+        <f>SUIVI!B131</f>
+        <v>45755</v>
+      </c>
+      <c r="B130" s="39">
+        <f>SUIVI!C131</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C130">
+        <f>SUIVI!AT131</f>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f>SUIVI!AU131</f>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f>SUIVI!AV131</f>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f>SUIVI!AW131</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f>SUIVI!AX131</f>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f>SUIVI!AY131</f>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f>SUIVI!AZ131</f>
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f>SUIVI!BA131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="38">
+        <f>SUIVI!B132</f>
+        <v>45755</v>
+      </c>
+      <c r="B131" s="39">
+        <f>SUIVI!C132</f>
+        <v>0.625</v>
+      </c>
+      <c r="C131" t="str">
+        <f>SUIVI!AT132</f>
+        <v>HS</v>
+      </c>
+      <c r="D131" t="str">
+        <f>SUIVI!AU132</f>
+        <v>HS</v>
+      </c>
+      <c r="E131" t="str">
+        <f>SUIVI!AV132</f>
+        <v>HS</v>
+      </c>
+      <c r="F131" t="str">
+        <f>SUIVI!AW132</f>
+        <v>HS</v>
+      </c>
+      <c r="G131" t="str">
+        <f>SUIVI!AX132</f>
+        <v>HS</v>
+      </c>
+      <c r="H131" t="str">
+        <f>SUIVI!AY132</f>
+        <v>HS</v>
+      </c>
+      <c r="I131" t="str">
+        <f>SUIVI!AZ132</f>
+        <v>HS</v>
+      </c>
+      <c r="J131" t="str">
+        <f>SUIVI!BA132</f>
+        <v>HS</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="38">
+        <f>SUIVI!B133</f>
+        <v>45755</v>
+      </c>
+      <c r="B132" s="39">
+        <f>SUIVI!C133</f>
+        <v>0.75</v>
+      </c>
+      <c r="C132">
+        <f>SUIVI!AT133</f>
+        <v>1.78</v>
+      </c>
+      <c r="D132">
+        <f>SUIVI!AU133</f>
+        <v>1405</v>
+      </c>
+      <c r="E132">
+        <f>SUIVI!AV133</f>
+        <v>769</v>
+      </c>
+      <c r="F132">
+        <f>SUIVI!AW133</f>
+        <v>636</v>
+      </c>
+      <c r="G132">
+        <f>SUIVI!AX133</f>
+        <v>769</v>
+      </c>
+      <c r="H132">
+        <f>SUIVI!AY133</f>
+        <v>640</v>
+      </c>
+      <c r="I132">
+        <f>SUIVI!AZ133</f>
+        <v>437</v>
+      </c>
+      <c r="J132">
+        <f>SUIVI!BA133</f>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="38">
+        <f>SUIVI!B134</f>
+        <v>45755</v>
+      </c>
+      <c r="B133" s="39">
+        <f>SUIVI!C134</f>
+        <v>0.875</v>
+      </c>
+      <c r="C133">
+        <f>SUIVI!AT134</f>
+        <v>1.71</v>
+      </c>
+      <c r="D133">
+        <f>SUIVI!AU134</f>
+        <v>1407</v>
+      </c>
+      <c r="E133">
+        <f>SUIVI!AV134</f>
+        <v>771</v>
+      </c>
+      <c r="F133">
+        <f>SUIVI!AW134</f>
+        <v>636</v>
+      </c>
+      <c r="G133">
+        <f>SUIVI!AX134</f>
+        <v>771</v>
+      </c>
+      <c r="H133">
+        <f>SUIVI!AY134</f>
+        <v>622</v>
+      </c>
+      <c r="I133">
+        <f>SUIVI!AZ134</f>
+        <v>422</v>
+      </c>
+      <c r="J133">
+        <f>SUIVI!BA134</f>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="38">
+        <f>SUIVI!B135</f>
+        <v>45755</v>
+      </c>
+      <c r="B134" s="39">
+        <f>SUIVI!C135</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C134">
+        <f>SUIVI!AT135</f>
+        <v>1.71</v>
+      </c>
+      <c r="D134">
+        <f>SUIVI!AU135</f>
+        <v>1405</v>
+      </c>
+      <c r="E134">
+        <f>SUIVI!AV135</f>
+        <v>770</v>
+      </c>
+      <c r="F134">
+        <f>SUIVI!AW135</f>
+        <v>635</v>
+      </c>
+      <c r="G134">
+        <f>SUIVI!AX135</f>
+        <v>775</v>
+      </c>
+      <c r="H134">
+        <f>SUIVI!AY135</f>
+        <v>621</v>
+      </c>
+      <c r="I134">
+        <f>SUIVI!AZ135</f>
+        <v>412</v>
+      </c>
+      <c r="J134">
+        <f>SUIVI!BA135</f>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="38">
+        <f>SUIVI!B136</f>
+        <v>45756</v>
+      </c>
+      <c r="B135" s="39">
+        <f>SUIVI!C136</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C135">
+        <f>SUIVI!AT136</f>
+        <v>1.7</v>
+      </c>
+      <c r="D135">
+        <f>SUIVI!AU136</f>
+        <v>1411</v>
+      </c>
+      <c r="E135">
+        <f>SUIVI!AV136</f>
+        <v>772</v>
+      </c>
+      <c r="F135">
+        <f>SUIVI!AW136</f>
+        <v>636</v>
+      </c>
+      <c r="G135">
+        <f>SUIVI!AX136</f>
+        <v>770</v>
+      </c>
+      <c r="H135">
+        <f>SUIVI!AY136</f>
+        <v>627</v>
+      </c>
+      <c r="I135">
+        <f>SUIVI!AZ136</f>
+        <v>392</v>
+      </c>
+      <c r="J135">
+        <f>SUIVI!BA136</f>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="38">
+        <f>SUIVI!B137</f>
+        <v>45756</v>
+      </c>
+      <c r="B136" s="39">
+        <f>SUIVI!C137</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C136">
+        <f>SUIVI!AT137</f>
+        <v>1.7</v>
+      </c>
+      <c r="D136">
+        <f>SUIVI!AU137</f>
+        <v>1410</v>
+      </c>
+      <c r="E136">
+        <f>SUIVI!AV137</f>
+        <v>771</v>
+      </c>
+      <c r="F136">
+        <f>SUIVI!AW137</f>
+        <v>639</v>
+      </c>
+      <c r="G136">
+        <f>SUIVI!AX137</f>
+        <v>773</v>
+      </c>
+      <c r="H136">
+        <f>SUIVI!AY137</f>
+        <v>628</v>
+      </c>
+      <c r="I136">
+        <f>SUIVI!AZ137</f>
+        <v>391</v>
+      </c>
+      <c r="J136">
+        <f>SUIVI!BA137</f>
+        <v>5.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/suivi 3h standart DIPS.xlsx
+++ b/suivi 3h standart DIPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FECD9FC-EBA1-40E5-A36F-5501E2505D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FC6A66-F785-4C5F-92A9-897CB298F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="611" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="611" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUIVI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="294">
   <si>
     <t>Filtre à cartouche</t>
   </si>
@@ -921,6 +921,9 @@
   <si>
     <t>6.48</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
@@ -1577,7 +1580,7 @@
   <dimension ref="A1:BN137"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
@@ -22595,8 +22598,8 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -22612,7 +22615,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -26695,9 +26698,7 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:G136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -26711,7 +26712,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="57.6">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -30794,9 +30795,7 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:J136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -30814,7 +30813,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -36526,9 +36525,7 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J136"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -36537,7 +36534,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -42249,9 +42246,7 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -42267,7 +42262,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -47979,9 +47974,7 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -47997,7 +47990,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -53709,8 +53702,8 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:J136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -53720,7 +53713,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>

--- a/suivi 3h standart DIPS.xlsx
+++ b/suivi 3h standart DIPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\wave2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FC6A66-F785-4C5F-92A9-897CB298F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DE3ED-AD86-4D57-B421-DA25981ABB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="611" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUIVI" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="293">
   <si>
     <t>Filtre à cartouche</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>p1/ éq2</t>
-  </si>
-  <si>
-    <t>30:03:2025</t>
   </si>
   <si>
     <t>p2/eq3</t>
@@ -1579,9 +1576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN137"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -8935,8 +8932,8 @@
       <c r="A49" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>162</v>
+      <c r="B49" s="21">
+        <v>45746</v>
       </c>
       <c r="C49" s="22">
         <v>0.41666666666666669</v>
@@ -9577,7 +9574,7 @@
     </row>
     <row r="53" spans="1:53">
       <c r="A53" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="21">
         <v>45746</v>
@@ -9756,7 +9753,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>33</v>
@@ -9771,7 +9768,7 @@
         <v>5592</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M54" s="14">
         <v>4208</v>
@@ -9780,22 +9777,22 @@
         <v>4</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P54" s="14">
         <v>4212</v>
       </c>
       <c r="Q54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="R54" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="R54" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="S54" s="14">
         <v>226</v>
       </c>
       <c r="T54" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U54" s="14" t="s">
         <v>40</v>
@@ -9822,10 +9819,10 @@
         <v>506</v>
       </c>
       <c r="AC54" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD54" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="AD54" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="AE54" s="14">
         <v>1397</v>
@@ -9846,10 +9843,10 @@
         <v>513</v>
       </c>
       <c r="AK54" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL54" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="AL54" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="AM54" s="14">
         <v>1401</v>
@@ -9870,7 +9867,7 @@
         <v>474</v>
       </c>
       <c r="AS54" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AT54" s="23"/>
       <c r="AU54" s="23"/>
@@ -9898,10 +9895,10 @@
         <v>5124</v>
       </c>
       <c r="F55" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>33</v>
@@ -9916,7 +9913,7 @@
         <v>5003</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M55" s="14">
         <v>4234</v>
@@ -9925,13 +9922,13 @@
         <v>4</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P55" s="14">
         <v>4242</v>
       </c>
       <c r="Q55" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R55" s="14" t="s">
         <v>84</v>
@@ -9940,7 +9937,7 @@
         <v>250</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U55" s="14" t="s">
         <v>142</v>
@@ -9970,7 +9967,7 @@
         <v>150</v>
       </c>
       <c r="AD55" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE55" s="14">
         <v>1397</v>
@@ -9994,7 +9991,7 @@
         <v>105</v>
       </c>
       <c r="AL55" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM55" s="14">
         <v>1402</v>
@@ -10015,7 +10012,7 @@
         <v>460</v>
       </c>
       <c r="AS55" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AT55" s="23"/>
       <c r="AU55" s="23"/>
@@ -10043,10 +10040,10 @@
         <v>4926</v>
       </c>
       <c r="F56" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>65</v>
@@ -10061,7 +10058,7 @@
         <v>4890</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M56" s="14">
         <v>4244</v>
@@ -10070,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P56" s="14">
         <v>4219</v>
@@ -10085,7 +10082,7 @@
         <v>225</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U56" s="14" t="s">
         <v>40</v>
@@ -10112,7 +10109,7 @@
         <v>496</v>
       </c>
       <c r="AC56" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD56" s="14" t="s">
         <v>52</v>
@@ -10136,10 +10133,10 @@
         <v>509</v>
       </c>
       <c r="AK56" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL56" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM56" s="14">
         <v>1406</v>
@@ -10160,7 +10157,7 @@
         <v>467</v>
       </c>
       <c r="AS56" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT56" s="23"/>
       <c r="AU56" s="23"/>
@@ -10608,7 +10605,7 @@
     </row>
     <row r="60" spans="1:53">
       <c r="A60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="5">
         <v>45747</v>
@@ -10769,7 +10766,7 @@
     </row>
     <row r="61" spans="1:53" ht="16.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="19">
         <v>45747</v>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="62" spans="1:53">
       <c r="A62" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" s="19">
         <v>45747</v>
@@ -11252,7 +11249,7 @@
     </row>
     <row r="64" spans="1:53">
       <c r="A64" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="19">
         <v>45747</v>
@@ -11488,7 +11485,7 @@
         <v>77</v>
       </c>
       <c r="Z65" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA65" s="14" t="s">
         <v>77</v>
@@ -12170,7 +12167,7 @@
     </row>
     <row r="70" spans="1:65">
       <c r="A70" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B70" s="19">
         <v>45748</v>
@@ -12331,7 +12328,7 @@
     </row>
     <row r="71" spans="1:65">
       <c r="A71" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="19">
         <v>45748</v>
@@ -12492,7 +12489,7 @@
     </row>
     <row r="72" spans="1:65">
       <c r="A72" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72" s="19">
         <v>45748</v>
@@ -12653,7 +12650,7 @@
     </row>
     <row r="73" spans="1:65">
       <c r="A73" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="19">
         <v>45749</v>
@@ -12814,7 +12811,7 @@
     </row>
     <row r="74" spans="1:65">
       <c r="A74" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" s="19">
         <v>45749</v>
@@ -12975,7 +12972,7 @@
     </row>
     <row r="75" spans="1:65">
       <c r="A75" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" s="19">
         <v>45749</v>
@@ -12990,7 +12987,7 @@
         <v>5257</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>48</v>
@@ -13008,7 +13005,7 @@
         <v>5680</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M75" s="14">
         <v>5420</v>
@@ -13017,13 +13014,13 @@
         <v>4</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P75" s="14">
         <v>5260</v>
       </c>
       <c r="Q75" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R75" s="14" t="s">
         <v>84</v>
@@ -13032,7 +13029,7 @@
         <v>227</v>
       </c>
       <c r="T75" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U75" s="14" t="s">
         <v>87</v>
@@ -13059,10 +13056,10 @@
         <v>554</v>
       </c>
       <c r="AC75" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD75" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE75" s="14">
         <v>1398</v>
@@ -13083,7 +13080,7 @@
         <v>524</v>
       </c>
       <c r="AK75" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL75" s="14" t="s">
         <v>43</v>
@@ -13107,7 +13104,7 @@
         <v>481</v>
       </c>
       <c r="AS75" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT75" s="14" t="s">
         <v>53</v>
@@ -13131,12 +13128,12 @@
         <v>396</v>
       </c>
       <c r="BA75" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:65">
       <c r="A76" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" s="25">
         <v>45749</v>
@@ -13309,7 +13306,7 @@
     </row>
     <row r="77" spans="1:65">
       <c r="A77" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" s="19">
         <v>45749</v>
@@ -13324,13 +13321,13 @@
         <v>4593</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I77" s="14">
         <v>15</v>
@@ -13342,7 +13339,7 @@
         <v>6385</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M77" s="14">
         <v>5677</v>
@@ -13351,13 +13348,13 @@
         <v>4</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P77" s="14">
         <v>5670</v>
       </c>
       <c r="Q77" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R77" s="14" t="s">
         <v>67</v>
@@ -13366,7 +13363,7 @@
         <v>204</v>
       </c>
       <c r="T77" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U77" s="14" t="s">
         <v>67</v>
@@ -13393,7 +13390,7 @@
         <v>533</v>
       </c>
       <c r="AC77" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD77" s="14" t="s">
         <v>52</v>
@@ -13441,7 +13438,7 @@
         <v>475</v>
       </c>
       <c r="AS77" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT77" s="14" t="s">
         <v>45</v>
@@ -13465,7 +13462,7 @@
         <v>385</v>
       </c>
       <c r="BA77" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -14436,10 +14433,10 @@
     </row>
     <row r="84" spans="1:53">
       <c r="A84" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="21">
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="C84" s="6">
         <v>0.29166666666666669</v>
@@ -14451,7 +14448,7 @@
         <v>4869</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>91</v>
@@ -14469,7 +14466,7 @@
         <v>6111</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M84" s="14">
         <v>5664</v>
@@ -14478,13 +14475,13 @@
         <v>4</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P84" s="14">
         <v>5652</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R84" s="14" t="s">
         <v>142</v>
@@ -14493,13 +14490,13 @@
         <v>198</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U84" s="14" t="s">
         <v>87</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W84" s="14">
         <v>1410</v>
@@ -14520,10 +14517,10 @@
         <v>525</v>
       </c>
       <c r="AC84" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD84" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE84" s="14">
         <v>1399</v>
@@ -14544,10 +14541,10 @@
         <v>522</v>
       </c>
       <c r="AK84" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL84" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM84" s="14">
         <v>1402</v>
@@ -14568,7 +14565,7 @@
         <v>467</v>
       </c>
       <c r="AS84" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT84" s="14" t="s">
         <v>71</v>
@@ -14592,15 +14589,15 @@
         <v>373</v>
       </c>
       <c r="BA84" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" s="21">
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="C85" s="26">
         <v>0.41666666666666669</v>
@@ -14612,7 +14609,7 @@
         <v>6889</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>32</v>
@@ -14630,7 +14627,7 @@
         <v>6876</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M85" s="14">
         <v>5620</v>
@@ -14639,13 +14636,13 @@
         <v>4</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P85" s="14">
         <v>4212</v>
       </c>
       <c r="Q85" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R85" s="14" t="s">
         <v>67</v>
@@ -14654,7 +14651,7 @@
         <v>228</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U85" s="14" t="s">
         <v>87</v>
@@ -14668,7 +14665,7 @@
       <c r="AB85" s="23"/>
       <c r="AC85" s="23"/>
       <c r="AD85" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE85" s="14">
         <v>1401</v>
@@ -14692,7 +14689,7 @@
         <v>131</v>
       </c>
       <c r="AL85" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM85" s="14">
         <v>1404</v>
@@ -14713,7 +14710,7 @@
         <v>473</v>
       </c>
       <c r="AS85" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AT85" s="14" t="s">
         <v>71</v>
@@ -14742,10 +14739,10 @@
     </row>
     <row r="86" spans="1:53" ht="16.5" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B86" s="21">
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="C86" s="6">
         <v>0.54166666666666663</v>
@@ -14757,10 +14754,10 @@
         <v>5774</v>
       </c>
       <c r="F86" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>33</v>
@@ -14775,7 +14772,7 @@
         <v>4977</v>
       </c>
       <c r="L86" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M86" s="14">
         <v>4227</v>
@@ -14784,13 +14781,13 @@
         <v>4</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P86" s="14">
         <v>4276</v>
       </c>
       <c r="Q86" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R86" s="14" t="s">
         <v>84</v>
@@ -14799,7 +14796,7 @@
         <v>132</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U86" s="14" t="s">
         <v>87</v>
@@ -14834,7 +14831,7 @@
         <v>523</v>
       </c>
       <c r="AK86" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL86" s="14" t="s">
         <v>43</v>
@@ -14858,7 +14855,7 @@
         <v>478</v>
       </c>
       <c r="AS86" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AT86" s="14" t="s">
         <v>45</v>
@@ -14882,7 +14879,7 @@
         <v>374</v>
       </c>
       <c r="BA86" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:53">
@@ -15802,7 +15799,7 @@
     </row>
     <row r="93" spans="1:53" s="27" customFormat="1">
       <c r="A93" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B93" s="21">
         <v>45751</v>
@@ -15963,7 +15960,7 @@
     </row>
     <row r="94" spans="1:53" s="27" customFormat="1">
       <c r="A94" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B94" s="21">
         <v>45751</v>
@@ -16300,10 +16297,10 @@
         <v>5585</v>
       </c>
       <c r="F96" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>82</v>
@@ -16318,7 +16315,7 @@
         <v>5700</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M96" s="14">
         <v>4256</v>
@@ -16327,13 +16324,13 @@
         <v>4</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P96" s="14">
         <v>4189</v>
       </c>
       <c r="Q96" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R96" s="14" t="s">
         <v>96</v>
@@ -16342,7 +16339,7 @@
         <v>227</v>
       </c>
       <c r="T96" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U96" s="14" t="s">
         <v>87</v>
@@ -16356,7 +16353,7 @@
       <c r="AB96" s="23"/>
       <c r="AC96" s="23"/>
       <c r="AD96" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE96" s="14">
         <v>1401</v>
@@ -16401,7 +16398,7 @@
         <v>480</v>
       </c>
       <c r="AS96" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT96" s="14" t="s">
         <v>71</v>
@@ -16425,7 +16422,7 @@
         <v>372</v>
       </c>
       <c r="BA96" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:53">
@@ -16445,7 +16442,7 @@
         <v>5713</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>48</v>
@@ -16463,7 +16460,7 @@
         <v>5913</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M97" s="14">
         <v>4234</v>
@@ -16472,13 +16469,13 @@
         <v>4</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P97" s="14">
         <v>4268</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R97" s="14" t="s">
         <v>84</v>
@@ -16487,7 +16484,7 @@
         <v>164</v>
       </c>
       <c r="T97" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U97" s="14" t="s">
         <v>87</v>
@@ -16525,7 +16522,7 @@
         <v>130</v>
       </c>
       <c r="AL97" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM97" s="14">
         <v>1409</v>
@@ -16546,7 +16543,7 @@
         <v>488</v>
       </c>
       <c r="AS97" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AT97" s="14" t="s">
         <v>71</v>
@@ -16590,10 +16587,10 @@
         <v>6524</v>
       </c>
       <c r="F98" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>101</v>
@@ -16608,7 +16605,7 @@
         <v>6212</v>
       </c>
       <c r="L98" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M98" s="14">
         <v>4288</v>
@@ -16617,7 +16614,7 @@
         <v>4</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P98" s="14">
         <v>4262</v>
@@ -16632,7 +16629,7 @@
         <v>228</v>
       </c>
       <c r="T98" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U98" s="14" t="s">
         <v>87</v>
@@ -16667,7 +16664,7 @@
         <v>528</v>
       </c>
       <c r="AK98" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL98" s="14" t="s">
         <v>43</v>
@@ -16691,7 +16688,7 @@
         <v>477</v>
       </c>
       <c r="AS98" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AT98" s="14" t="s">
         <v>45</v>
@@ -16715,7 +16712,7 @@
         <v>373</v>
       </c>
       <c r="BA98" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:53">
@@ -16723,7 +16720,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="21">
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="C99" s="6">
         <v>0.95833333333333337</v>
@@ -16777,7 +16774,7 @@
         <v>245</v>
       </c>
       <c r="T99" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U99" s="30">
         <v>0.01</v>
@@ -17155,7 +17152,7 @@
     </row>
     <row r="102" spans="1:53">
       <c r="A102" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B102" s="21">
         <v>45752</v>
@@ -17316,7 +17313,7 @@
     </row>
     <row r="103" spans="1:53">
       <c r="A103" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" s="21">
         <v>45752</v>
@@ -17477,7 +17474,7 @@
     </row>
     <row r="104" spans="1:53">
       <c r="A104" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B104" s="21">
         <v>45752</v>
@@ -17653,13 +17650,13 @@
         <v>6291</v>
       </c>
       <c r="F105" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="H105" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="I105" s="14">
         <v>15</v>
@@ -17671,7 +17668,7 @@
         <v>4993</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M105" s="14">
         <v>4261</v>
@@ -17680,13 +17677,13 @@
         <v>4</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P105" s="14">
         <v>4212</v>
       </c>
       <c r="Q105" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R105" s="14" t="s">
         <v>37</v>
@@ -17695,7 +17692,7 @@
         <v>219</v>
       </c>
       <c r="T105" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U105" s="14" t="s">
         <v>87</v>
@@ -17733,7 +17730,7 @@
         <v>152</v>
       </c>
       <c r="AL105" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM105" s="14">
         <v>1410</v>
@@ -17754,7 +17751,7 @@
         <v>477</v>
       </c>
       <c r="AS105" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT105" s="14" t="s">
         <v>71</v>
@@ -17778,7 +17775,7 @@
         <v>372</v>
       </c>
       <c r="BA105" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:53">
@@ -17798,7 +17795,7 @@
         <v>6014</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>91</v>
@@ -17816,7 +17813,7 @@
         <v>5514</v>
       </c>
       <c r="L106" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M106" s="14">
         <v>4217</v>
@@ -17825,13 +17822,13 @@
         <v>4</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P106" s="14">
         <v>4262</v>
       </c>
       <c r="Q106" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R106" s="14" t="s">
         <v>94</v>
@@ -17840,7 +17837,7 @@
         <v>125</v>
       </c>
       <c r="T106" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U106" s="14" t="s">
         <v>87</v>
@@ -17875,7 +17872,7 @@
         <v>542</v>
       </c>
       <c r="AK106" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL106" s="14" t="s">
         <v>43</v>
@@ -17899,7 +17896,7 @@
         <v>495</v>
       </c>
       <c r="AS106" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AT106" s="14" t="s">
         <v>45</v>
@@ -17923,7 +17920,7 @@
         <v>383</v>
       </c>
       <c r="BA106" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:53" ht="15.75" customHeight="1">
@@ -17943,10 +17940,10 @@
         <v>5501</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>37</v>
@@ -17961,7 +17958,7 @@
         <v>5040</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M107" s="14">
         <v>4282</v>
@@ -17970,7 +17967,7 @@
         <v>4</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P107" s="14">
         <v>4242</v>
@@ -17979,13 +17976,13 @@
         <v>85</v>
       </c>
       <c r="R107" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S107" s="14">
         <v>216</v>
       </c>
       <c r="T107" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U107" s="14" t="s">
         <v>87</v>
@@ -18044,7 +18041,7 @@
         <v>499</v>
       </c>
       <c r="AS107" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AT107" s="14" t="s">
         <v>98</v>
@@ -18068,7 +18065,7 @@
         <v>385</v>
       </c>
       <c r="BA107" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:53">
@@ -18508,7 +18505,7 @@
     </row>
     <row r="111" spans="1:53" s="28" customFormat="1">
       <c r="A111" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B111" s="21">
         <v>45753</v>
@@ -18653,7 +18650,7 @@
     </row>
     <row r="112" spans="1:53" s="28" customFormat="1">
       <c r="A112" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" s="21">
         <v>45753</v>
@@ -18798,7 +18795,7 @@
     </row>
     <row r="113" spans="1:66" s="28" customFormat="1">
       <c r="A113" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B113" s="21">
         <v>45753</v>
@@ -19099,7 +19096,7 @@
         <v>372</v>
       </c>
       <c r="BA114" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:66" s="28" customFormat="1">
@@ -19441,10 +19438,10 @@
         <v>4996</v>
       </c>
       <c r="F117" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G117" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>40</v>
@@ -19459,7 +19456,7 @@
         <v>3677</v>
       </c>
       <c r="L117" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M117" s="14">
         <v>2854</v>
@@ -19477,13 +19474,13 @@
         <v>85</v>
       </c>
       <c r="R117" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S117" s="14">
         <v>225</v>
       </c>
       <c r="T117" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U117" s="14" t="s">
         <v>87</v>
@@ -19518,7 +19515,7 @@
         <v>550</v>
       </c>
       <c r="AK117" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL117" s="23"/>
       <c r="AM117" s="23"/>
@@ -19570,10 +19567,10 @@
         <v>5660</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>40</v>
@@ -19588,7 +19585,7 @@
         <v>4991</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M118" s="14">
         <v>4238</v>
@@ -19597,22 +19594,22 @@
         <v>4</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P118" s="14">
         <v>4237</v>
       </c>
       <c r="Q118" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="R118" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="R118" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="S118" s="14">
         <v>213</v>
       </c>
       <c r="T118" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U118" s="14" t="s">
         <v>87</v>
@@ -19671,10 +19668,10 @@
         <v>609</v>
       </c>
       <c r="AS118" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT118" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU118" s="14">
         <v>1411</v>
@@ -19715,10 +19712,10 @@
         <v>5840</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>126</v>
@@ -19733,7 +19730,7 @@
         <v>5556</v>
       </c>
       <c r="L119" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M119" s="14">
         <v>4188</v>
@@ -19742,13 +19739,13 @@
         <v>4</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P119" s="14">
         <v>4256</v>
       </c>
       <c r="Q119" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R119" s="14" t="s">
         <v>142</v>
@@ -19757,7 +19754,7 @@
         <v>217</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U119" s="14" t="s">
         <v>87</v>
@@ -19771,7 +19768,7 @@
       <c r="AB119" s="23"/>
       <c r="AC119" s="23"/>
       <c r="AD119" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE119" s="14">
         <v>1401</v>
@@ -19792,7 +19789,7 @@
         <v>541</v>
       </c>
       <c r="AK119" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL119" s="14" t="s">
         <v>69</v>
@@ -19816,7 +19813,7 @@
         <v>546</v>
       </c>
       <c r="AS119" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AT119" s="14" t="s">
         <v>71</v>
@@ -19845,7 +19842,7 @@
     </row>
     <row r="120" spans="1:66" s="14" customFormat="1">
       <c r="A120" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120" s="21">
         <v>45754</v>
@@ -20006,7 +20003,7 @@
     </row>
     <row r="121" spans="1:66" s="14" customFormat="1">
       <c r="A121" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B121" s="21">
         <v>45754</v>
@@ -20167,7 +20164,7 @@
     </row>
     <row r="122" spans="1:66" s="14" customFormat="1">
       <c r="A122" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B122" s="21">
         <v>45754</v>
@@ -20328,7 +20325,7 @@
     </row>
     <row r="123" spans="1:66" s="14" customFormat="1">
       <c r="A123" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123" s="21">
         <v>45754</v>
@@ -20826,7 +20823,7 @@
         <v>5845</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G126" s="33">
         <v>8.36</v>
@@ -20927,7 +20924,7 @@
         <v>518</v>
       </c>
       <c r="AS126" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT126" s="33" t="s">
         <v>71</v>
@@ -20951,7 +20948,7 @@
         <v>383</v>
       </c>
       <c r="BA126" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BB126" s="35"/>
       <c r="BC126" s="35"/>
@@ -20984,7 +20981,7 @@
         <v>5007</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>91</v>
@@ -21002,7 +20999,7 @@
         <v>3782</v>
       </c>
       <c r="L127" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M127" s="14">
         <v>2834</v>
@@ -21017,16 +21014,16 @@
         <v>2875</v>
       </c>
       <c r="Q127" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R127" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S127" s="14">
         <v>205</v>
       </c>
       <c r="T127" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U127" s="14" t="s">
         <v>87</v>
@@ -21061,7 +21058,7 @@
         <v>535</v>
       </c>
       <c r="AK127" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL127" s="14" t="s">
         <v>69</v>
@@ -21085,7 +21082,7 @@
         <v>509</v>
       </c>
       <c r="AS127" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AT127" s="23"/>
       <c r="AU127" s="23"/>
@@ -21113,7 +21110,7 @@
         <v>4936</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G128" s="36" t="s">
         <v>91</v>
@@ -21146,16 +21143,16 @@
         <v>2846</v>
       </c>
       <c r="Q128" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R128" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S128" s="36">
         <v>219</v>
       </c>
       <c r="T128" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U128" s="36" t="s">
         <v>87</v>
@@ -21169,7 +21166,7 @@
       <c r="AB128" s="37"/>
       <c r="AC128" s="37"/>
       <c r="AD128" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE128" s="36">
         <v>1402</v>
@@ -21214,7 +21211,7 @@
         <v>506</v>
       </c>
       <c r="AS128" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AT128" s="23"/>
       <c r="AU128" s="23"/>
@@ -22094,7 +22091,7 @@
     </row>
     <row r="135" spans="1:53">
       <c r="A135" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" s="48">
         <v>45755</v>
@@ -22598,7 +22595,7 @@
   </sheetPr>
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -22615,7 +22612,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -24017,9 +24014,9 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -25069,7 +25066,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -25099,7 +25096,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -25129,7 +25126,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -25519,7 +25516,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -26712,7 +26709,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="57.6">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -28114,9 +28111,9 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -29166,7 +29163,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -29196,7 +29193,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -29226,7 +29223,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -29616,7 +29613,7 @@
     <row r="98" spans="1:7">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -30813,7 +30810,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -32776,9 +32773,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -34248,7 +34245,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -34290,7 +34287,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -34332,7 +34329,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -34878,7 +34875,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -36525,7 +36522,7 @@
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -36534,7 +36531,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -38497,9 +38494,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -39969,7 +39966,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -40011,7 +40008,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -40053,7 +40050,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -40599,7 +40596,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -42262,7 +42259,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -44225,9 +44222,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -45697,7 +45694,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -45739,7 +45736,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -45781,7 +45778,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -46327,7 +46324,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -47990,7 +47987,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -49953,9 +49950,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -51425,7 +51422,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -51467,7 +51464,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -51509,7 +51506,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -52055,7 +52052,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
@@ -53713,7 +53710,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -55676,9 +55673,9 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="str">
+      <c r="A48" s="38">
         <f>SUIVI!B49</f>
-        <v>30:03:2025</v>
+        <v>45746</v>
       </c>
       <c r="B48" s="39">
         <f>SUIVI!C49</f>
@@ -57148,7 +57145,7 @@
     <row r="83" spans="1:10">
       <c r="A83" s="38">
         <f>SUIVI!B84</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B83" s="39">
         <f>SUIVI!C84</f>
@@ -57190,7 +57187,7 @@
     <row r="84" spans="1:10">
       <c r="A84" s="38">
         <f>SUIVI!B85</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B84" s="39">
         <f>SUIVI!C85</f>
@@ -57232,7 +57229,7 @@
     <row r="85" spans="1:10">
       <c r="A85" s="38">
         <f>SUIVI!B86</f>
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="B85" s="39">
         <f>SUIVI!C86</f>
@@ -57778,7 +57775,7 @@
     <row r="98" spans="1:10">
       <c r="A98" s="38">
         <f>SUIVI!B99</f>
-        <v>4</v>
+        <v>45751</v>
       </c>
       <c r="B98" s="39">
         <f>SUIVI!C99</f>
